--- a/biology/Botanique/Glaucocystis/Glaucocystis.xlsx
+++ b/biology/Botanique/Glaucocystis/Glaucocystis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaucocystis est un genre d'algues de la famille des Glaucocystaceae, de l'embranchement des Glaucophyta. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (12 mars 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (12 mars 2017) :
 Glaucocystis bullosa (Kützing) Wille
 Glaucocystis caucasica D.A.Tarnogradskii
 Glaucocystis cingulata Bohlin
@@ -524,18 +538,18 @@
 Glaucocystis oocystiformis Prescott
 Glaucocystis reniformis B.N.Prasad &amp; P.K.Misra
 Glaucocystis simplex D.A.Tarnogradskii
-Selon ITIS      (12 mars 2017)[2] :
+Selon ITIS      (12 mars 2017) :
 Glaucocystis duplex Prescott
 Glaucocystis nostochinearum Itzigsohn
 Glaucocystis oocystiformis Prescott, 1944
-Selon NCBI  (12 mars 2017)[3] :
+Selon NCBI  (12 mars 2017) :
 Glaucocystis bhattacharyae  
 Glaucocystis geitleri
 Glaucocystis incrassata  
 Glaucocystis miyajii
 Glaucocystis nostochinearum
 Glaucocystis oocystiformis
-Selon World Register of Marine Species                               (12 mars 2017)[4] :
+Selon World Register of Marine Species                               (12 mars 2017) :
 Glaucocystis bullosa (Kützing) Wille, 1919
 Glaucocystis caucasica D.A.Tarnogradskii, 1957
 Glaucocystis cingulata Bohlin, 1897
